--- a/biology/Zoologie/Charinus_mysticus/Charinus_mysticus.xlsx
+++ b/biology/Zoologie/Charinus_mysticus/Charinus_mysticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus mysticus est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Bahia au Brésil[1],[2]. Elle se rencontre à Gentio do Ouro dans la grotte Caverna Encantados et à Central dans la grotte Gruta Rolling Stones.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Bahia au Brésil,. Elle se rencontre à Gentio do Ouro dans la grotte Caverna Encantados et à Central dans la grotte Gruta Rolling Stones.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 5,5 mm de long sur 7,0 mm et l'abdomen 7,5 mm[3].
-La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 5,12 mm de long sur 7,04 mm et celle de la femelle 4,45 mm de long sur 5,94 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 5,5 mm de long sur 7,0 mm et l'abdomen 7,5 mm.
+La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 5,12 mm de long sur 7,04 mm et celle de la femelle 4,45 mm de long sur 5,94 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Giupponi &amp; Kury, 2002 : « A new species of Charinus Simon, 1892 from northeastern Brazil (Arachnida, Amblypygi, Charinidae). » Boletim do Museu Nacional Rio de Janeiro Zoologia, vol. 477, p. 1-7.</t>
         </is>
